--- a/allaboutexcel.xlsx
+++ b/allaboutexcel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>#</t>
   </si>
@@ -32,12 +32,6 @@
   </si>
   <si>
     <t>likes</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -369,7 +363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -377,7 +371,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -390,11 +384,6 @@
       </c>
       <c r="E1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
